--- a/output/table2022_multivariate.xlsx
+++ b/output/table2022_multivariate.xlsx
@@ -17,40 +17,44 @@
     <t xml:space="preserve">term</t>
   </si>
   <si>
-    <t xml:space="preserve">estimate_Onset timing 2021</t>
+    <t xml:space="preserve">estimate_Onset timing 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.low_Onset timing 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.high_Onset timing 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate_Peak timing 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.low_Peak timing 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.high_Peak timing 2022</t>
   </si>
   <si>
     <t xml:space="preserve">estimate_Growth rate 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">conf.low_Onset timing 2022</t>
+    <t xml:space="preserve">conf.low_Growth rate 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.high_Growth rate 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate_Intensity 2022</t>
   </si>
   <si>
     <t xml:space="preserve">conf.low_Intensity 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">estimate_Onset timing 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate_Intensity 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf.low_Peak timing 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf.high_Onset timing 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate_Peak timing 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf.low_Onset timing 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf.low_Growth rate 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf.high_Onset timing 2022</t>
+    <t xml:space="preserve">conf.high_Intensity 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemisphere 
+ Southern (vs Northern)</t>
   </si>
   <si>
     <t xml:space="preserve">Climate Zone 
@@ -61,20 +65,16 @@
  Tropical (vs temperate)</t>
   </si>
   <si>
+    <t xml:space="preserve">Population density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSV out-of-season in 2021, yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSV intensity in 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Population median age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemisphere 
- Southern (vs Northern)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSV out-of-season in 2021, yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSV intensity in 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Contact stringency</t>
@@ -455,32 +455,34 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>2.71786429349709</v>
-      </c>
-      <c r="C2"/>
+        <v>0.908405475416211</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.381104844617165</v>
+      </c>
       <c r="D2" t="n">
-        <v>-3.73955152586272</v>
+        <v>2.19791579544959</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.792561005114684</v>
+        <v>2.50093397055659</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.02665846339645</v>
+        <v>1.13827990284551</v>
       </c>
       <c r="G2" t="n">
-        <v>0.133211648076898</v>
+        <v>3.86358803826768</v>
       </c>
       <c r="H2"/>
-      <c r="I2" t="n">
-        <v>4.26194913065908</v>
-      </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>1.17377945633509</v>
-      </c>
-      <c r="L2"/>
+        <v>-0.694380822549918</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.74296506184749</v>
+      </c>
       <c r="M2" t="n">
-        <v>-0.313765400930174</v>
+        <v>0.354203416747652</v>
       </c>
     </row>
     <row r="3">
@@ -488,32 +490,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1.12378240992909</v>
-      </c>
-      <c r="C3"/>
+        <v>-2.02665846339645</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.73955152586272</v>
+      </c>
       <c r="D3" t="n">
-        <v>-1.88263601302204</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-2.16093916429277</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.32060186574993</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.04677556094177</v>
-      </c>
+        <v>-0.313765400930174</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="n">
-        <v>2.89786880081065</v>
-      </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>-0.650303980952472</v>
-      </c>
-      <c r="L3"/>
+        <v>0.133211648076898</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.792561005114684</v>
+      </c>
       <c r="M3" t="n">
-        <v>1.24143228152218</v>
+        <v>1.05898430126848</v>
       </c>
     </row>
     <row r="4">
@@ -521,32 +519,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1.35025363295464</v>
-      </c>
-      <c r="C4"/>
+        <v>-0.32060186574993</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.88263601302204</v>
+      </c>
       <c r="D4" t="n">
-        <v>-2.21140901377593</v>
+        <v>1.24143228152218</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="n">
-        <v>-1.29169014229165</v>
-      </c>
+      <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>-0.151783256602275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.06478922556578</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.353094131444072</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" t="n">
-        <v>0.635718040343496</v>
-      </c>
-      <c r="L4"/>
+        <v>-1.04677556094177</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.16093916429277</v>
+      </c>
       <c r="M4" t="n">
-        <v>-0.371971270807366</v>
+        <v>0.0673880424092195</v>
       </c>
     </row>
     <row r="5">
@@ -554,36 +548,28 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2.55275738876301</v>
-      </c>
-      <c r="C5"/>
+        <v>-0.58534401670784</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.13241681424668</v>
+      </c>
       <c r="D5" t="n">
-        <v>-0.381104844617165</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.74296506184749</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.908405475416211</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.694380822549918</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.13827990284551</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.02891913877117</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.50093397055659</v>
-      </c>
+        <v>-0.0382712191690036</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="K5" t="n">
-        <v>1.07659563875485</v>
-      </c>
-      <c r="L5"/>
+        <v>-0.27735875721193</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.683813550922767</v>
+      </c>
       <c r="M5" t="n">
-        <v>2.19791579544959</v>
+        <v>0.129096036498907</v>
       </c>
     </row>
     <row r="6">
@@ -591,107 +577,109 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>1.19827052009709</v>
-      </c>
-      <c r="C6"/>
+        <v>-1.0349239055483</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.35109902341753</v>
+      </c>
       <c r="D6" t="n">
-        <v>-1.13241681424668</v>
+        <v>0.28125121232092</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.683813550922767</v>
+        <v>-2.21357033375032</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.58534401670784</v>
+        <v>-3.38122477235132</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.27735875721193</v>
-      </c>
-      <c r="H6"/>
+        <v>-1.04591589514932</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.0853286535112483</v>
+      </c>
       <c r="I6" t="n">
-        <v>1.77110978986731</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" t="n">
-        <v>0.625431250326866</v>
-      </c>
+        <v>-0.21984363071203</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0491863236895339</v>
+      </c>
+      <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" t="n">
-        <v>-0.0382712191690036</v>
-      </c>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>-0.679862642611406</v>
+      </c>
       <c r="C7" t="n">
-        <v>-0.0850659640029851</v>
+        <v>-1.26315650372749</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.35109902341753</v>
+        <v>-0.0965687814953177</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="n">
-        <v>-1.0349239055483</v>
-      </c>
+      <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" t="n">
-        <v>-3.38122477235132</v>
-      </c>
+      <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="n">
-        <v>-2.21357033375032</v>
-      </c>
+      <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" t="n">
-        <v>-0.219638538709333</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.28125121232092</v>
-      </c>
+      <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="n">
+        <v>-1.29169014229165</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.21140901377593</v>
+      </c>
       <c r="D8" t="n">
-        <v>-1.26315650372749</v>
-      </c>
-      <c r="E8"/>
+        <v>-0.371971270807366</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.353094131444072</v>
+      </c>
       <c r="F8" t="n">
-        <v>-0.679862642611406</v>
-      </c>
-      <c r="G8"/>
+        <v>-0.151783256602275</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.857971519490419</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>-0.0965687814953177</v>
-      </c>
+      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9"/>
-      <c r="C9" t="n">
-        <v>-0.0440407223286682</v>
-      </c>
+      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="H9" t="n">
+        <v>-0.0444283106010242</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.110064898632481</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0212082774304326</v>
+      </c>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>-0.109705415065067</v>
-      </c>
+      <c r="L9"/>
       <c r="M9"/>
     </row>
   </sheetData>
